--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863.1265058083982</v>
+        <v>305.5522071246552</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.317999839782715</v>
+        <v>0.7320001125335693</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>37.55220712465517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.558192350630922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.988684551332163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670.8700000014815</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.87</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>25.33845519167734</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.61595173195234</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21.03034756122318</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27.68109939842174</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,90 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000051</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000341</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000413</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000289</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000369</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000673</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000611</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000686</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.4500000000721</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000686</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>191.9750000001017</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>201.8300000000998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>205.2950000001123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>207.3100000001081</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000001754</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000001739</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000001943</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000001841</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000002161</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>166.4300000000434</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>167.6400000000406</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>169.0100000000464</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>166.7900000000427</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>156.1550000000432</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>166.4300000000573</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>167.6400000000507</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>169.0100000000601</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>166.7900000000547</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>156.1550000000569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.9750000001141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>201.8300000001186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>205.2950000001265</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.3100000001222</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>202.9999999999951</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.43000000005554</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6400000000491</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.01000000005854</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.79000000005294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.155000000055338</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.97500000011257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>51.83000000011737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>55.29500000012507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>57.31000000012079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.99999999999346</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1914,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2027,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,10 +1915,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2065,10 +1926,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2076,10 +1937,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2087,10 +1948,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2098,78 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
